--- a/data/Uber.xlsx
+++ b/data/Uber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Documents/Git/Projeto2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Dip\Repos\BayesianSentimentAnalyzer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836F6485-E640-9A49-9D4F-5C8E2F4A06A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82323DFF-6741-4662-9671-FE86C0C291E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2037,7 +2037,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2357,19 +2357,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:D401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="111" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -2751,1274 +2751,1774 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A313" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A327" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A328" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A330" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A331" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A332" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A333" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A340" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A342" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A348" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A355" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A360" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A380" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A383" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A385" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A388" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A390" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401" s="2" t="s">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -4028,19 +4528,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B300"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="A300" sqref="A201:A300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="88.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
@@ -4048,1499 +4548,999 @@
         <v>602</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A201" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A207" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A208" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A211" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A212" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A213" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A214" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A215" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A216" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A217" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A218" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A219" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A220" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A222" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A223" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A225" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A226" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A227" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A228" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A229" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A230" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A231" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A232" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A233" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A234" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A235" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A236" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A237" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A238" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A239" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A240" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A241" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A242" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A243" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A244" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A245" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A246" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A247" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A248" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A249" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A250" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A251" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A252" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A253" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A254" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A256" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A257" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A258" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A259" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A260" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A261" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A262" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A263" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A264" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A265" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A266" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A267" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A268" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A269" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A270" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A272" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A273" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A274" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A275" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A276" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A277" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A278" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" ht="144" x14ac:dyDescent="0.2">
-      <c r="A279" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A280" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A281" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A282" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A283" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A284" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A285" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A286" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A287" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A288" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A289" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A290" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A291" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A292" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A293" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A294" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A295" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A296" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A297" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A298" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A299" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A300" s="2" t="s">
-        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/data/Uber.xlsx
+++ b/data/Uber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Dip\Repos\BayesianSentimentAnalyzer\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Documents/Git/Projeto2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82323DFF-6741-4662-9671-FE86C0C291E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1B3E7F-E029-B742-A28F-5926EAFF7931}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="605">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2037,7 +2037,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2359,17 +2359,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B402" sqref="B402"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="111" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -2751,1774 +2751,2836 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
         <v>600</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4528,1019 +5590,1622 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B200"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="A300" sqref="A201:A300"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="88.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B1" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>500</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Uber.xlsx
+++ b/data/Uber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Documents/Git/Projeto2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Dip\Repos\BayesianSentimentAnalyzer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1B3E7F-E029-B742-A28F-5926EAFF7931}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4806A56-47BE-4E5F-8C08-100524D80570}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4488" yWindow="1740" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="603">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1947,12 +1947,6 @@
   </si>
   <si>
     <t>classificacao</t>
-  </si>
-  <si>
-    <t>1-relevante</t>
-  </si>
-  <si>
-    <t>0-irrelevante</t>
   </si>
 </sst>
 </file>
@@ -2037,7 +2031,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2357,33 +2351,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D401"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B402" sqref="B402"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="111" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>601</v>
       </c>
-      <c r="C1" t="s">
-        <v>603</v>
-      </c>
-      <c r="D1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2391,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2399,7 +2387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2407,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2415,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2423,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2431,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2439,7 +2427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2447,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2455,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2463,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2471,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2479,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2487,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2495,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2503,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2511,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2519,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2527,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2535,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2543,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2551,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2559,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2567,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2575,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2583,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2591,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2599,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2607,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2615,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2623,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2631,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2639,7 +2627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2647,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -2655,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -2663,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -2671,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -2679,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -2687,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -2695,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2703,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -2711,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -2719,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -2727,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -2735,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -2743,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -2751,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -2759,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -2767,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -2775,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -2783,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -2791,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -2799,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -2807,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -2815,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -2823,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -2831,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -2839,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -2847,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -2855,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -2863,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -2871,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -2879,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -2887,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -2895,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -2903,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -2911,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -2919,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -2927,7 +2915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -2935,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -2943,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -2951,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -2959,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -2967,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -2975,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -2983,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -2991,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -2999,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -3007,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -3015,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -3023,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -3031,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -3039,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -3047,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -3055,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -3063,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -3071,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -3079,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -3087,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -3095,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -3103,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -3111,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -3119,7 +3107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -3127,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -3135,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -3143,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -3151,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -3159,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -3167,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -3175,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -3183,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -3191,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -3199,7 +3187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -3207,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -3215,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -3223,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -3231,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -3239,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -3247,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -3255,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -3263,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -3271,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -3279,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
@@ -3287,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -3295,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -3303,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -3311,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -3319,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -3327,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -3335,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -3343,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -3351,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -3359,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -3367,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -3375,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -3383,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -3391,7 +3379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -3399,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -3407,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -3415,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -3423,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -3431,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -3439,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -3447,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -3455,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -3463,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -3471,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -3479,7 +3467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -3487,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
@@ -3495,7 +3483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -3503,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -3511,7 +3499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -3519,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -3527,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
@@ -3535,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
@@ -3543,7 +3531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -3551,7 +3539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -3559,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -3567,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -3575,7 +3563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -3583,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
@@ -3591,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -3599,7 +3587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -3607,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
@@ -3615,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
@@ -3623,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -3631,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -3639,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
@@ -3647,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
@@ -3655,7 +3643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
@@ -3663,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
@@ -3671,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
@@ -3679,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
@@ -3687,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
@@ -3695,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
@@ -3703,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
@@ -3711,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
@@ -3719,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
@@ -3727,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
@@ -3735,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
@@ -3743,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
@@ -3751,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
@@ -3759,7 +3747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
@@ -3767,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -3775,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -3783,7 +3771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
@@ -3791,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
@@ -3799,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
@@ -3807,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
@@ -3815,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
@@ -3823,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
@@ -3831,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
@@ -3839,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
@@ -3847,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
@@ -3855,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
@@ -3863,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
@@ -3871,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
@@ -3879,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
@@ -3887,7 +3875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
@@ -3895,7 +3883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
@@ -3903,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
@@ -3911,7 +3899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
@@ -3919,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
@@ -3927,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
@@ -3935,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
@@ -3943,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
@@ -3951,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
@@ -3959,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
@@ -3967,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
@@ -3975,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
@@ -3983,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
@@ -3991,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
@@ -3999,7 +3987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
@@ -4007,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
@@ -4015,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -4023,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
@@ -4031,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
@@ -4039,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
@@ -4047,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
@@ -4055,7 +4043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
@@ -4063,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
@@ -4071,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
@@ -4079,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
@@ -4087,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
@@ -4095,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
@@ -4103,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
@@ -4111,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
@@ -4119,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
@@ -4127,7 +4115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
@@ -4135,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
@@ -4143,7 +4131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
@@ -4151,7 +4139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
@@ -4159,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
@@ -4167,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
@@ -4175,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
@@ -4183,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
@@ -4191,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
@@ -4199,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
@@ -4207,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -4215,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -4223,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
@@ -4231,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
@@ -4239,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -4247,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
@@ -4255,7 +4243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
@@ -4263,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
@@ -4271,7 +4259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
@@ -4279,7 +4267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
@@ -4287,7 +4275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
@@ -4295,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
@@ -4303,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
@@ -4311,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
@@ -4319,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
@@ -4327,7 +4315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
@@ -4335,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
@@ -4343,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
@@ -4351,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
@@ -4359,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
@@ -4367,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
@@ -4375,7 +4363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
@@ -4383,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
@@ -4391,7 +4379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
@@ -4399,7 +4387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
@@ -4407,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
@@ -4415,7 +4403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
@@ -4423,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
@@ -4431,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
@@ -4439,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
@@ -4447,7 +4435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
@@ -4455,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
@@ -4463,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
@@ -4471,7 +4459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
@@ -4479,7 +4467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
@@ -4487,7 +4475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
@@ -4495,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
@@ -4503,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
@@ -4511,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
@@ -4519,7 +4507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
@@ -4527,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
@@ -4535,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
@@ -4543,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
@@ -4551,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
@@ -4559,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
@@ -4567,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
@@ -4575,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
@@ -4583,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
@@ -4591,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
@@ -4599,7 +4587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
@@ -4607,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
@@ -4615,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
@@ -4623,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
@@ -4631,7 +4619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
@@ -4639,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
@@ -4647,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
@@ -4655,7 +4643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
@@ -4663,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
@@ -4671,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
@@ -4679,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
@@ -4687,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
@@ -4695,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
@@ -4703,7 +4691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
@@ -4711,7 +4699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
@@ -4719,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
@@ -4727,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
@@ -4735,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
@@ -4743,7 +4731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
@@ -4751,7 +4739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
@@ -4759,7 +4747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
@@ -4767,7 +4755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
@@ -4775,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
@@ -4783,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>501</v>
       </c>
@@ -4791,7 +4779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>502</v>
       </c>
@@ -4799,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>503</v>
       </c>
@@ -4807,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>504</v>
       </c>
@@ -4815,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>505</v>
       </c>
@@ -4823,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>506</v>
       </c>
@@ -4831,7 +4819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>507</v>
       </c>
@@ -4839,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>508</v>
       </c>
@@ -4847,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>509</v>
       </c>
@@ -4855,7 +4843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>510</v>
       </c>
@@ -4863,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>511</v>
       </c>
@@ -4871,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>512</v>
       </c>
@@ -4879,7 +4867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>513</v>
       </c>
@@ -4887,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>514</v>
       </c>
@@ -4895,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>515</v>
       </c>
@@ -4903,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>516</v>
       </c>
@@ -4911,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>517</v>
       </c>
@@ -4919,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>518</v>
       </c>
@@ -4927,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>519</v>
       </c>
@@ -4935,7 +4923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>520</v>
       </c>
@@ -4943,7 +4931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>521</v>
       </c>
@@ -4951,7 +4939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>522</v>
       </c>
@@ -4959,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>523</v>
       </c>
@@ -4967,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>524</v>
       </c>
@@ -4975,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>525</v>
       </c>
@@ -4983,7 +4971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>526</v>
       </c>
@@ -4991,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>527</v>
       </c>
@@ -4999,7 +4987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>528</v>
       </c>
@@ -5007,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>529</v>
       </c>
@@ -5015,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>530</v>
       </c>
@@ -5023,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>531</v>
       </c>
@@ -5031,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>532</v>
       </c>
@@ -5039,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>533</v>
       </c>
@@ -5047,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>534</v>
       </c>
@@ -5055,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>535</v>
       </c>
@@ -5063,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>536</v>
       </c>
@@ -5071,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>537</v>
       </c>
@@ -5079,7 +5067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>538</v>
       </c>
@@ -5087,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>539</v>
       </c>
@@ -5095,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>540</v>
       </c>
@@ -5103,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>541</v>
       </c>
@@ -5111,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>542</v>
       </c>
@@ -5119,7 +5107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>543</v>
       </c>
@@ -5127,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>544</v>
       </c>
@@ -5135,7 +5123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>545</v>
       </c>
@@ -5143,7 +5131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>546</v>
       </c>
@@ -5151,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>547</v>
       </c>
@@ -5159,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>548</v>
       </c>
@@ -5167,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>549</v>
       </c>
@@ -5175,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>550</v>
       </c>
@@ -5183,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>551</v>
       </c>
@@ -5191,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>552</v>
       </c>
@@ -5199,7 +5187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>553</v>
       </c>
@@ -5207,7 +5195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>554</v>
       </c>
@@ -5215,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>555</v>
       </c>
@@ -5223,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>556</v>
       </c>
@@ -5231,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>557</v>
       </c>
@@ -5239,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>558</v>
       </c>
@@ -5247,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>559</v>
       </c>
@@ -5255,7 +5243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>560</v>
       </c>
@@ -5263,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>561</v>
       </c>
@@ -5271,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>562</v>
       </c>
@@ -5279,7 +5267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>563</v>
       </c>
@@ -5287,7 +5275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>564</v>
       </c>
@@ -5295,7 +5283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>565</v>
       </c>
@@ -5303,7 +5291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>566</v>
       </c>
@@ -5311,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>567</v>
       </c>
@@ -5319,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>568</v>
       </c>
@@ -5327,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>569</v>
       </c>
@@ -5335,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>570</v>
       </c>
@@ -5343,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>571</v>
       </c>
@@ -5351,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>572</v>
       </c>
@@ -5359,7 +5347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>573</v>
       </c>
@@ -5367,7 +5355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>574</v>
       </c>
@@ -5375,7 +5363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>575</v>
       </c>
@@ -5383,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>576</v>
       </c>
@@ -5391,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>577</v>
       </c>
@@ -5399,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>578</v>
       </c>
@@ -5407,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>579</v>
       </c>
@@ -5415,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>580</v>
       </c>
@@ -5423,7 +5411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>581</v>
       </c>
@@ -5431,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>582</v>
       </c>
@@ -5439,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>583</v>
       </c>
@@ -5447,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>584</v>
       </c>
@@ -5455,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>585</v>
       </c>
@@ -5463,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>586</v>
       </c>
@@ -5471,7 +5459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>587</v>
       </c>
@@ -5479,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>588</v>
       </c>
@@ -5487,7 +5475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>589</v>
       </c>
@@ -5495,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>590</v>
       </c>
@@ -5503,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>591</v>
       </c>
@@ -5511,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>592</v>
       </c>
@@ -5519,7 +5507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>593</v>
       </c>
@@ -5527,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>594</v>
       </c>
@@ -5535,7 +5523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>595</v>
       </c>
@@ -5543,7 +5531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>596</v>
       </c>
@@ -5551,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>597</v>
       </c>
@@ -5559,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>598</v>
       </c>
@@ -5567,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>599</v>
       </c>
@@ -5575,7 +5563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>600</v>
       </c>
@@ -5590,33 +5578,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="88.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B1" t="s">
         <v>602</v>
       </c>
-      <c r="C1" t="s">
-        <v>603</v>
-      </c>
-      <c r="D1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>302</v>
       </c>
@@ -5624,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>303</v>
       </c>
@@ -5632,7 +5614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>304</v>
       </c>
@@ -5640,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>305</v>
       </c>
@@ -5648,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>306</v>
       </c>
@@ -5656,7 +5638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>307</v>
       </c>
@@ -5664,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>308</v>
       </c>
@@ -5672,7 +5654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>309</v>
       </c>
@@ -5680,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>310</v>
       </c>
@@ -5688,7 +5670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>311</v>
       </c>
@@ -5696,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>312</v>
       </c>
@@ -5704,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>313</v>
       </c>
@@ -5712,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>314</v>
       </c>
@@ -5720,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>315</v>
       </c>
@@ -5728,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>316</v>
       </c>
@@ -5736,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>317</v>
       </c>
@@ -5744,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>318</v>
       </c>
@@ -5752,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>319</v>
       </c>
@@ -5760,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>320</v>
       </c>
@@ -5768,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>321</v>
       </c>
@@ -5776,7 +5758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>322</v>
       </c>
@@ -5784,7 +5766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>323</v>
       </c>
@@ -5792,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>324</v>
       </c>
@@ -5800,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>325</v>
       </c>
@@ -5808,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>326</v>
       </c>
@@ -5816,7 +5798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>327</v>
       </c>
@@ -5824,7 +5806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>328</v>
       </c>
@@ -5832,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>329</v>
       </c>
@@ -5840,7 +5822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>330</v>
       </c>
@@ -5848,7 +5830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>331</v>
       </c>
@@ -5856,7 +5838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>332</v>
       </c>
@@ -5864,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>333</v>
       </c>
@@ -5872,7 +5854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>334</v>
       </c>
@@ -5880,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>335</v>
       </c>
@@ -5888,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>336</v>
       </c>
@@ -5896,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>337</v>
       </c>
@@ -5904,7 +5886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>338</v>
       </c>
@@ -5912,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>339</v>
       </c>
@@ -5920,7 +5902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>340</v>
       </c>
@@ -5928,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>341</v>
       </c>
@@ -5936,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>342</v>
       </c>
@@ -5944,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>343</v>
       </c>
@@ -5952,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>344</v>
       </c>
@@ -5960,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>345</v>
       </c>
@@ -5968,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>346</v>
       </c>
@@ -5976,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>347</v>
       </c>
@@ -5984,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>348</v>
       </c>
@@ -5992,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>349</v>
       </c>
@@ -6000,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>350</v>
       </c>
@@ -6008,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>351</v>
       </c>
@@ -6016,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>352</v>
       </c>
@@ -6024,7 +6006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>353</v>
       </c>
@@ -6032,7 +6014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>354</v>
       </c>
@@ -6040,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>355</v>
       </c>
@@ -6048,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>356</v>
       </c>
@@ -6056,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>357</v>
       </c>
@@ -6064,7 +6046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>358</v>
       </c>
@@ -6072,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>359</v>
       </c>
@@ -6080,7 +6062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>360</v>
       </c>
@@ -6088,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>361</v>
       </c>
@@ -6096,7 +6078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>362</v>
       </c>
@@ -6104,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>363</v>
       </c>
@@ -6112,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>364</v>
       </c>
@@ -6120,7 +6102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>365</v>
       </c>
@@ -6128,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>366</v>
       </c>
@@ -6136,7 +6118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>367</v>
       </c>
@@ -6144,7 +6126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>368</v>
       </c>
@@ -6152,7 +6134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>369</v>
       </c>
@@ -6160,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>370</v>
       </c>
@@ -6168,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>371</v>
       </c>
@@ -6176,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>372</v>
       </c>
@@ -6184,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>373</v>
       </c>
@@ -6192,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>374</v>
       </c>
@@ -6200,7 +6182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>375</v>
       </c>
@@ -6208,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>376</v>
       </c>
@@ -6216,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>377</v>
       </c>
@@ -6224,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>378</v>
       </c>
@@ -6232,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>379</v>
       </c>
@@ -6240,7 +6222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>380</v>
       </c>
@@ -6248,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>381</v>
       </c>
@@ -6256,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>382</v>
       </c>
@@ -6264,7 +6246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>383</v>
       </c>
@@ -6272,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>384</v>
       </c>
@@ -6280,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>385</v>
       </c>
@@ -6288,7 +6270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>386</v>
       </c>
@@ -6296,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>387</v>
       </c>
@@ -6304,7 +6286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>388</v>
       </c>
@@ -6312,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>389</v>
       </c>
@@ -6320,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>390</v>
       </c>
@@ -6328,7 +6310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>391</v>
       </c>
@@ -6336,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>392</v>
       </c>
@@ -6344,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>393</v>
       </c>
@@ -6352,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>394</v>
       </c>
@@ -6360,7 +6342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>395</v>
       </c>
@@ -6368,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>396</v>
       </c>
@@ -6376,7 +6358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>397</v>
       </c>
@@ -6384,7 +6366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>398</v>
       </c>
@@ -6392,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>399</v>
       </c>
@@ -6400,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>400</v>
       </c>
@@ -6408,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>401</v>
       </c>
@@ -6416,7 +6398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>402</v>
       </c>
@@ -6424,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>403</v>
       </c>
@@ -6432,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>404</v>
       </c>
@@ -6440,7 +6422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>405</v>
       </c>
@@ -6448,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>406</v>
       </c>
@@ -6456,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>407</v>
       </c>
@@ -6464,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>408</v>
       </c>
@@ -6472,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>409</v>
       </c>
@@ -6480,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>410</v>
       </c>
@@ -6488,7 +6470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>411</v>
       </c>
@@ -6496,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>412</v>
       </c>
@@ -6504,7 +6486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>413</v>
       </c>
@@ -6512,7 +6494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>414</v>
       </c>
@@ -6520,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>415</v>
       </c>
@@ -6528,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>416</v>
       </c>
@@ -6536,7 +6518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>417</v>
       </c>
@@ -6544,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>418</v>
       </c>
@@ -6552,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>419</v>
       </c>
@@ -6560,7 +6542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>420</v>
       </c>
@@ -6568,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>421</v>
       </c>
@@ -6576,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>422</v>
       </c>
@@ -6584,7 +6566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>423</v>
       </c>
@@ -6592,7 +6574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>424</v>
       </c>
@@ -6600,7 +6582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>425</v>
       </c>
@@ -6608,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>426</v>
       </c>
@@ -6616,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>427</v>
       </c>
@@ -6624,7 +6606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>428</v>
       </c>
@@ -6632,7 +6614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>429</v>
       </c>
@@ -6640,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>430</v>
       </c>
@@ -6648,7 +6630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>431</v>
       </c>
@@ -6656,7 +6638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>432</v>
       </c>
@@ -6664,7 +6646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>433</v>
       </c>
@@ -6672,7 +6654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>434</v>
       </c>
@@ -6680,7 +6662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>435</v>
       </c>
@@ -6688,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>436</v>
       </c>
@@ -6696,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>437</v>
       </c>
@@ -6704,7 +6686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>438</v>
       </c>
@@ -6712,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>439</v>
       </c>
@@ -6720,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>440</v>
       </c>
@@ -6728,7 +6710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>441</v>
       </c>
@@ -6736,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>442</v>
       </c>
@@ -6744,7 +6726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>443</v>
       </c>
@@ -6752,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>444</v>
       </c>
@@ -6760,7 +6742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>445</v>
       </c>
@@ -6768,7 +6750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>446</v>
       </c>
@@ -6776,7 +6758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>447</v>
       </c>
@@ -6784,7 +6766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>448</v>
       </c>
@@ -6792,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>449</v>
       </c>
@@ -6800,7 +6782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>450</v>
       </c>
@@ -6808,7 +6790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>451</v>
       </c>
@@ -6816,7 +6798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>452</v>
       </c>
@@ -6824,7 +6806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>453</v>
       </c>
@@ -6832,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>454</v>
       </c>
@@ -6840,7 +6822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>455</v>
       </c>
@@ -6848,7 +6830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>456</v>
       </c>
@@ -6856,7 +6838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>457</v>
       </c>
@@ -6864,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>458</v>
       </c>
@@ -6872,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>459</v>
       </c>
@@ -6880,7 +6862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>460</v>
       </c>
@@ -6888,7 +6870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>461</v>
       </c>
@@ -6896,7 +6878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>462</v>
       </c>
@@ -6904,7 +6886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>463</v>
       </c>
@@ -6912,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>464</v>
       </c>
@@ -6920,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>465</v>
       </c>
@@ -6928,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>466</v>
       </c>
@@ -6936,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>467</v>
       </c>
@@ -6944,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>468</v>
       </c>
@@ -6952,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>469</v>
       </c>
@@ -6960,7 +6942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>470</v>
       </c>
@@ -6968,7 +6950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>471</v>
       </c>
@@ -6976,7 +6958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>472</v>
       </c>
@@ -6984,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>473</v>
       </c>
@@ -6992,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>474</v>
       </c>
@@ -7000,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>475</v>
       </c>
@@ -7008,7 +6990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>476</v>
       </c>
@@ -7016,7 +6998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>477</v>
       </c>
@@ -7024,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>478</v>
       </c>
@@ -7032,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>479</v>
       </c>
@@ -7040,7 +7022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>480</v>
       </c>
@@ -7048,7 +7030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>481</v>
       </c>
@@ -7056,7 +7038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>482</v>
       </c>
@@ -7064,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>483</v>
       </c>
@@ -7072,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>484</v>
       </c>
@@ -7080,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>485</v>
       </c>
@@ -7088,7 +7070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>486</v>
       </c>
@@ -7096,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>487</v>
       </c>
@@ -7104,7 +7086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>488</v>
       </c>
@@ -7112,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>489</v>
       </c>
@@ -7120,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>490</v>
       </c>
@@ -7128,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>491</v>
       </c>
@@ -7136,7 +7118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>492</v>
       </c>
@@ -7144,7 +7126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>493</v>
       </c>
@@ -7152,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>494</v>
       </c>
@@ -7160,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>495</v>
       </c>
@@ -7168,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>496</v>
       </c>
@@ -7176,7 +7158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>497</v>
       </c>
@@ -7184,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>498</v>
       </c>
@@ -7192,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>499</v>
       </c>
@@ -7200,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>500</v>
       </c>

--- a/data/Uber.xlsx
+++ b/data/Uber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Dip\Repos\BayesianSentimentAnalyzer\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Documents/Git/Projeto2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4806A56-47BE-4E5F-8C08-100524D80570}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6605462F-FB0F-754C-89D9-C7400EB79E63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4488" yWindow="1740" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2031,7 +2031,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2353,17 +2353,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B401" sqref="B401"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="111" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2379,15 +2379,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2395,15 +2395,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2419,55 +2419,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2483,23 +2483,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2507,15 +2507,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2547,15 +2547,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2563,23 +2563,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2595,23 +2595,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2619,15 +2619,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -2651,15 +2651,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -2667,15 +2667,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -2683,15 +2683,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -2731,15 +2731,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -2747,15 +2747,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -2779,15 +2779,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -2835,15 +2835,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -2851,15 +2851,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -2891,15 +2891,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -2907,15 +2907,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -3019,23 +3019,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -3059,15 +3059,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -3099,15 +3099,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -3115,15 +3115,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -3155,15 +3155,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -3179,23 +3179,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -3211,15 +3211,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -3267,15 +3267,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -3291,15 +3291,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -3323,31 +3323,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -3355,23 +3355,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -3379,15 +3379,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -3395,15 +3395,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -3411,39 +3411,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -3467,23 +3467,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -3491,55 +3491,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -3547,23 +3547,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -3571,23 +3571,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -3595,23 +3595,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
@@ -3635,15 +3635,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
@@ -3675,23 +3675,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
@@ -3715,15 +3715,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
@@ -3731,31 +3731,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -3763,15 +3763,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
@@ -3787,15 +3787,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
@@ -3811,15 +3811,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
@@ -3835,15 +3835,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
@@ -3867,23 +3867,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
@@ -3891,15 +3891,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
@@ -3907,15 +3907,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
@@ -3923,15 +3923,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
@@ -3947,47 +3947,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
@@ -4019,15 +4019,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
@@ -4035,15 +4035,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
@@ -4051,23 +4051,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
@@ -4107,15 +4107,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
@@ -4131,31 +4131,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -4235,15 +4235,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
@@ -4267,23 +4267,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
@@ -4323,15 +4323,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
@@ -4347,23 +4347,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
@@ -4371,23 +4371,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
@@ -4395,15 +4395,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
@@ -4411,15 +4411,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
@@ -4427,15 +4427,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
@@ -4451,15 +4451,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
@@ -4507,15 +4507,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
@@ -4523,15 +4523,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
@@ -4539,15 +4539,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
@@ -4563,15 +4563,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
@@ -4579,23 +4579,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
@@ -4603,55 +4603,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
@@ -4675,31 +4675,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
@@ -4715,23 +4715,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
       <c r="B295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
@@ -4739,23 +4739,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
@@ -4763,23 +4763,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
       <c r="B301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>501</v>
       </c>
       <c r="B302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>502</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>503</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>504</v>
       </c>
@@ -4803,31 +4803,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>505</v>
       </c>
       <c r="B306">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>506</v>
       </c>
       <c r="B307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>507</v>
       </c>
       <c r="B308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>508</v>
       </c>
@@ -4835,23 +4835,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>509</v>
       </c>
       <c r="B310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>510</v>
       </c>
       <c r="B311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>511</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>512</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>513</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>514</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>515</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>516</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>517</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>518</v>
       </c>
@@ -4915,15 +4915,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>519</v>
       </c>
       <c r="B320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>520</v>
       </c>
@@ -4931,23 +4931,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>521</v>
       </c>
       <c r="B322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>522</v>
       </c>
       <c r="B323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>523</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>524</v>
       </c>
@@ -4963,15 +4963,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>525</v>
       </c>
       <c r="B326">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>526</v>
       </c>
@@ -4979,15 +4979,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>527</v>
       </c>
       <c r="B328">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>528</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>529</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>530</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>531</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>532</v>
       </c>
@@ -5027,15 +5027,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>533</v>
       </c>
       <c r="B334">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>534</v>
       </c>
@@ -5043,15 +5043,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>535</v>
       </c>
       <c r="B336">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>536</v>
       </c>
@@ -5059,15 +5059,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>537</v>
       </c>
       <c r="B338">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>538</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>539</v>
       </c>
@@ -5083,15 +5083,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>540</v>
       </c>
       <c r="B341">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>541</v>
       </c>
@@ -5099,39 +5099,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>542</v>
       </c>
       <c r="B343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>543</v>
       </c>
       <c r="B344">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>544</v>
       </c>
       <c r="B345">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>545</v>
       </c>
       <c r="B346">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>546</v>
       </c>
@@ -5139,15 +5139,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>547</v>
       </c>
       <c r="B348">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>548</v>
       </c>
@@ -5155,23 +5155,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>549</v>
       </c>
       <c r="B350">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>550</v>
       </c>
       <c r="B351">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>551</v>
       </c>
@@ -5179,23 +5179,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>552</v>
       </c>
       <c r="B353">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>553</v>
       </c>
       <c r="B354">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>554</v>
       </c>
@@ -5203,15 +5203,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
         <v>555</v>
       </c>
       <c r="B356">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>556</v>
       </c>
@@ -5219,15 +5219,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
         <v>557</v>
       </c>
       <c r="B358">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
         <v>558</v>
       </c>
@@ -5235,15 +5235,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>559</v>
       </c>
       <c r="B360">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>560</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
         <v>561</v>
       </c>
@@ -5259,31 +5259,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
         <v>562</v>
       </c>
       <c r="B363">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
         <v>563</v>
       </c>
       <c r="B364">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
         <v>564</v>
       </c>
       <c r="B365">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>565</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
         <v>566</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>567</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
         <v>568</v>
       </c>
@@ -5315,15 +5315,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
         <v>569</v>
       </c>
       <c r="B370">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
         <v>570</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>571</v>
       </c>
@@ -5339,31 +5339,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
         <v>572</v>
       </c>
       <c r="B373">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
         <v>573</v>
       </c>
       <c r="B374">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
         <v>574</v>
       </c>
       <c r="B375">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
         <v>575</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
         <v>576</v>
       </c>
@@ -5379,15 +5379,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
         <v>577</v>
       </c>
       <c r="B378">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>578</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>579</v>
       </c>
@@ -5403,15 +5403,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
         <v>580</v>
       </c>
       <c r="B381">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>581</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>582</v>
       </c>
@@ -5427,15 +5427,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>583</v>
       </c>
       <c r="B384">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
         <v>584</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>585</v>
       </c>
@@ -5451,15 +5451,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>586</v>
       </c>
       <c r="B387">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>587</v>
       </c>
@@ -5467,15 +5467,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>588</v>
       </c>
       <c r="B389">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
         <v>589</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>590</v>
       </c>
@@ -5491,23 +5491,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
         <v>591</v>
       </c>
       <c r="B392">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
         <v>592</v>
       </c>
       <c r="B393">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
         <v>593</v>
       </c>
@@ -5515,23 +5515,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
         <v>594</v>
       </c>
       <c r="B395">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
         <v>595</v>
       </c>
       <c r="B396">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
         <v>596</v>
       </c>
@@ -5539,15 +5539,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
         <v>597</v>
       </c>
       <c r="B398">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
         <v>598</v>
       </c>
@@ -5555,15 +5555,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
         <v>599</v>
       </c>
       <c r="B400">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
         <v>600</v>
       </c>
@@ -5580,17 +5580,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="88.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>302</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>303</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>304</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>305</v>
       </c>
@@ -5630,15 +5630,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>306</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>307</v>
       </c>
@@ -5646,15 +5646,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>309</v>
       </c>
@@ -5662,15 +5662,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>310</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>311</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>312</v>
       </c>
@@ -5686,15 +5686,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>313</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>314</v>
       </c>
@@ -5702,15 +5702,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>315</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>316</v>
       </c>
@@ -5718,15 +5718,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>317</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>318</v>
       </c>
@@ -5734,47 +5734,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>319</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>320</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>322</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>323</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>324</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>325</v>
       </c>
@@ -5790,23 +5790,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>327</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>328</v>
       </c>
@@ -5814,39 +5814,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>330</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>331</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>332</v>
       </c>
       <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>333</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>334</v>
       </c>
@@ -5862,15 +5862,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>336</v>
       </c>
@@ -5878,15 +5878,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>337</v>
       </c>
       <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>338</v>
       </c>
@@ -5894,15 +5894,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>339</v>
       </c>
       <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>340</v>
       </c>
@@ -5910,15 +5910,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>342</v>
       </c>
@@ -5926,31 +5926,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>343</v>
       </c>
       <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>344</v>
       </c>
       <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>345</v>
       </c>
       <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>346</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>347</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>348</v>
       </c>
@@ -5974,15 +5974,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>349</v>
       </c>
       <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>350</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>351</v>
       </c>
@@ -5998,23 +5998,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>352</v>
       </c>
       <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>353</v>
       </c>
       <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>354</v>
       </c>
@@ -6022,15 +6022,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>355</v>
       </c>
       <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>356</v>
       </c>
@@ -6038,23 +6038,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>358</v>
       </c>
       <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>359</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>360</v>
       </c>
@@ -6070,15 +6070,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>361</v>
       </c>
       <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>362</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>363</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>364</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>365</v>
       </c>
@@ -6110,15 +6110,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>366</v>
       </c>
       <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>367</v>
       </c>
@@ -6126,23 +6126,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>368</v>
       </c>
       <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>369</v>
       </c>
       <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>370</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>371</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>372</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>373</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>374</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>375</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>376</v>
       </c>
@@ -6198,15 +6198,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>377</v>
       </c>
       <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>378</v>
       </c>
@@ -6214,15 +6214,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>379</v>
       </c>
       <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>380</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>381</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>382</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>383</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>384</v>
       </c>
@@ -6262,15 +6262,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>385</v>
       </c>
       <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>386</v>
       </c>
@@ -6278,15 +6278,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>387</v>
       </c>
       <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>388</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>389</v>
       </c>
@@ -6302,15 +6302,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>390</v>
       </c>
       <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>391</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>392</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>393</v>
       </c>
@@ -6334,15 +6334,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>394</v>
       </c>
       <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>395</v>
       </c>
@@ -6350,31 +6350,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>396</v>
       </c>
       <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>397</v>
       </c>
       <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>398</v>
       </c>
       <c r="B98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>399</v>
       </c>
@@ -6382,23 +6382,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>400</v>
       </c>
       <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>402</v>
       </c>
@@ -6406,23 +6406,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>404</v>
       </c>
       <c r="B104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>405</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>406</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>407</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>408</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>409</v>
       </c>
@@ -6462,15 +6462,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>410</v>
       </c>
       <c r="B110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>411</v>
       </c>
@@ -6478,23 +6478,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>412</v>
       </c>
       <c r="B112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>414</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>415</v>
       </c>
@@ -6510,15 +6510,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>416</v>
       </c>
       <c r="B116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>417</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>418</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>419</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>420</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>421</v>
       </c>
@@ -6558,31 +6558,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>422</v>
       </c>
       <c r="B122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>423</v>
       </c>
       <c r="B123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>424</v>
       </c>
       <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>425</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>426</v>
       </c>
@@ -6598,23 +6598,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>427</v>
       </c>
       <c r="B127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>428</v>
       </c>
       <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>429</v>
       </c>
@@ -6622,47 +6622,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>430</v>
       </c>
       <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>431</v>
       </c>
       <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>432</v>
       </c>
       <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>433</v>
       </c>
       <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>434</v>
       </c>
       <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>435</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>436</v>
       </c>
@@ -6678,15 +6678,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>437</v>
       </c>
       <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>438</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>439</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>440</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>441</v>
       </c>
@@ -6718,15 +6718,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>443</v>
       </c>
@@ -6734,15 +6734,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>444</v>
       </c>
       <c r="B144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>445</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>446</v>
       </c>
@@ -6758,15 +6758,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>447</v>
       </c>
       <c r="B147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>448</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>449</v>
       </c>
@@ -6782,31 +6782,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>450</v>
       </c>
       <c r="B150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>451</v>
       </c>
       <c r="B151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>452</v>
       </c>
       <c r="B152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>453</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>454</v>
       </c>
@@ -6822,15 +6822,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>455</v>
       </c>
       <c r="B155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>456</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>457</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>458</v>
       </c>
@@ -6854,23 +6854,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>459</v>
       </c>
       <c r="B159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>460</v>
       </c>
       <c r="B160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>461</v>
       </c>
@@ -6878,15 +6878,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>462</v>
       </c>
       <c r="B162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>463</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>464</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>465</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>466</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>467</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>468</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>469</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>470</v>
       </c>
@@ -6950,15 +6950,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>471</v>
       </c>
       <c r="B171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>472</v>
       </c>
@@ -6966,39 +6966,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>473</v>
       </c>
       <c r="B173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>474</v>
       </c>
       <c r="B174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>475</v>
       </c>
       <c r="B175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>476</v>
       </c>
       <c r="B176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>477</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>478</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>479</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>480</v>
       </c>
@@ -7030,15 +7030,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>481</v>
       </c>
       <c r="B181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>482</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>483</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>484</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>485</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>486</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>487</v>
       </c>
@@ -7086,15 +7086,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>488</v>
       </c>
       <c r="B188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>489</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>490</v>
       </c>
@@ -7110,23 +7110,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>491</v>
       </c>
       <c r="B191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>492</v>
       </c>
       <c r="B192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>493</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>494</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>495</v>
       </c>
@@ -7150,15 +7150,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>496</v>
       </c>
       <c r="B196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>497</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>498</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>499</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>500</v>
       </c>

--- a/data/Uber.xlsx
+++ b/data/Uber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Documents/Git/Projeto2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Dip\Repos\BayesianSentimentAnalyzer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6605462F-FB0F-754C-89D9-C7400EB79E63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4806A56-47BE-4E5F-8C08-100524D80570}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4488" yWindow="1740" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2031,7 +2031,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2353,17 +2353,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B401" sqref="B401"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="111" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2379,15 +2379,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2395,15 +2395,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2419,55 +2419,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2483,23 +2483,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2507,15 +2507,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2547,15 +2547,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2563,23 +2563,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2595,23 +2595,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2619,15 +2619,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -2651,15 +2651,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -2667,15 +2667,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -2683,15 +2683,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -2731,15 +2731,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -2747,15 +2747,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -2779,15 +2779,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -2835,15 +2835,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -2851,15 +2851,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -2891,15 +2891,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -2907,15 +2907,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -3019,23 +3019,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -3059,15 +3059,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -3099,15 +3099,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -3115,15 +3115,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -3155,15 +3155,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -3179,23 +3179,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -3211,15 +3211,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -3267,15 +3267,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -3291,15 +3291,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -3323,31 +3323,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -3355,23 +3355,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -3379,15 +3379,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -3395,15 +3395,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -3411,39 +3411,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -3467,23 +3467,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -3491,55 +3491,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -3547,23 +3547,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -3571,23 +3571,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -3595,23 +3595,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
@@ -3635,15 +3635,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
@@ -3675,23 +3675,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
@@ -3715,15 +3715,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
@@ -3731,31 +3731,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -3763,15 +3763,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
@@ -3787,15 +3787,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
@@ -3811,15 +3811,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
@@ -3835,15 +3835,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
@@ -3867,23 +3867,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
@@ -3891,15 +3891,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
@@ -3907,15 +3907,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
@@ -3923,15 +3923,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
@@ -3947,47 +3947,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
@@ -4019,15 +4019,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
@@ -4035,15 +4035,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
@@ -4051,23 +4051,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
@@ -4107,15 +4107,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
@@ -4131,31 +4131,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -4235,15 +4235,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
@@ -4267,23 +4267,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
@@ -4323,15 +4323,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
@@ -4347,23 +4347,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
@@ -4371,23 +4371,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
@@ -4395,15 +4395,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
@@ -4411,15 +4411,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
@@ -4427,15 +4427,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
@@ -4451,15 +4451,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
@@ -4507,15 +4507,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
@@ -4523,15 +4523,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
@@ -4539,15 +4539,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
@@ -4563,15 +4563,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
@@ -4579,23 +4579,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
@@ -4603,55 +4603,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
@@ -4675,31 +4675,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
@@ -4715,23 +4715,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
       <c r="B295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
@@ -4739,23 +4739,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
@@ -4763,23 +4763,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
       <c r="B301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>501</v>
       </c>
       <c r="B302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>502</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>503</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>504</v>
       </c>
@@ -4803,31 +4803,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>505</v>
       </c>
       <c r="B306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>506</v>
       </c>
       <c r="B307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>507</v>
       </c>
       <c r="B308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>508</v>
       </c>
@@ -4835,23 +4835,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>509</v>
       </c>
       <c r="B310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>510</v>
       </c>
       <c r="B311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>511</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>512</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>513</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>514</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>515</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>516</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>517</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>518</v>
       </c>
@@ -4915,15 +4915,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>519</v>
       </c>
       <c r="B320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>520</v>
       </c>
@@ -4931,23 +4931,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>521</v>
       </c>
       <c r="B322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>522</v>
       </c>
       <c r="B323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>523</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>524</v>
       </c>
@@ -4963,15 +4963,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>525</v>
       </c>
       <c r="B326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>526</v>
       </c>
@@ -4979,15 +4979,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>527</v>
       </c>
       <c r="B328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>528</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>529</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>530</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>531</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>532</v>
       </c>
@@ -5027,15 +5027,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>533</v>
       </c>
       <c r="B334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>534</v>
       </c>
@@ -5043,15 +5043,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>535</v>
       </c>
       <c r="B336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>536</v>
       </c>
@@ -5059,15 +5059,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>537</v>
       </c>
       <c r="B338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>538</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>539</v>
       </c>
@@ -5083,15 +5083,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>540</v>
       </c>
       <c r="B341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>541</v>
       </c>
@@ -5099,39 +5099,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>542</v>
       </c>
       <c r="B343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>543</v>
       </c>
       <c r="B344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>544</v>
       </c>
       <c r="B345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>545</v>
       </c>
       <c r="B346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>546</v>
       </c>
@@ -5139,15 +5139,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>547</v>
       </c>
       <c r="B348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>548</v>
       </c>
@@ -5155,23 +5155,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>549</v>
       </c>
       <c r="B350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>550</v>
       </c>
       <c r="B351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>551</v>
       </c>
@@ -5179,23 +5179,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>552</v>
       </c>
       <c r="B353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>553</v>
       </c>
       <c r="B354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>554</v>
       </c>
@@ -5203,15 +5203,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>555</v>
       </c>
       <c r="B356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>556</v>
       </c>
@@ -5219,15 +5219,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>557</v>
       </c>
       <c r="B358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>558</v>
       </c>
@@ -5235,15 +5235,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>559</v>
       </c>
       <c r="B360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>560</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>561</v>
       </c>
@@ -5259,31 +5259,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>562</v>
       </c>
       <c r="B363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>563</v>
       </c>
       <c r="B364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>564</v>
       </c>
       <c r="B365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>565</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>566</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>567</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>568</v>
       </c>
@@ -5315,15 +5315,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>569</v>
       </c>
       <c r="B370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>570</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>571</v>
       </c>
@@ -5339,31 +5339,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>572</v>
       </c>
       <c r="B373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>573</v>
       </c>
       <c r="B374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>574</v>
       </c>
       <c r="B375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>575</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>576</v>
       </c>
@@ -5379,15 +5379,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>577</v>
       </c>
       <c r="B378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>578</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>579</v>
       </c>
@@ -5403,15 +5403,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>580</v>
       </c>
       <c r="B381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>581</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>582</v>
       </c>
@@ -5427,15 +5427,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>583</v>
       </c>
       <c r="B384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>584</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>585</v>
       </c>
@@ -5451,15 +5451,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>586</v>
       </c>
       <c r="B387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>587</v>
       </c>
@@ -5467,15 +5467,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>588</v>
       </c>
       <c r="B389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>589</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>590</v>
       </c>
@@ -5491,23 +5491,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>591</v>
       </c>
       <c r="B392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>592</v>
       </c>
       <c r="B393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>593</v>
       </c>
@@ -5515,23 +5515,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>594</v>
       </c>
       <c r="B395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>595</v>
       </c>
       <c r="B396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>596</v>
       </c>
@@ -5539,15 +5539,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>597</v>
       </c>
       <c r="B398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>598</v>
       </c>
@@ -5555,15 +5555,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>599</v>
       </c>
       <c r="B400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>600</v>
       </c>
@@ -5580,17 +5580,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="88.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>302</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>303</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>304</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>305</v>
       </c>
@@ -5630,15 +5630,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>306</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>307</v>
       </c>
@@ -5646,15 +5646,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>309</v>
       </c>
@@ -5662,15 +5662,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>310</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>311</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>312</v>
       </c>
@@ -5686,15 +5686,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>313</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>314</v>
       </c>
@@ -5702,15 +5702,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>315</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>316</v>
       </c>
@@ -5718,15 +5718,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>317</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>318</v>
       </c>
@@ -5734,47 +5734,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>319</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>320</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>322</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>323</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>324</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>325</v>
       </c>
@@ -5790,23 +5790,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>327</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>328</v>
       </c>
@@ -5814,39 +5814,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>330</v>
       </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>331</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>332</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>333</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>334</v>
       </c>
@@ -5862,15 +5862,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>336</v>
       </c>
@@ -5878,15 +5878,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>337</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>338</v>
       </c>
@@ -5894,15 +5894,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>339</v>
       </c>
       <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>340</v>
       </c>
@@ -5910,15 +5910,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>342</v>
       </c>
@@ -5926,31 +5926,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>343</v>
       </c>
       <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>344</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>345</v>
       </c>
       <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>346</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>347</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>348</v>
       </c>
@@ -5974,15 +5974,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>349</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>350</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>351</v>
       </c>
@@ -5998,23 +5998,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>352</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>353</v>
       </c>
       <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>354</v>
       </c>
@@ -6022,15 +6022,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>355</v>
       </c>
       <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>356</v>
       </c>
@@ -6038,23 +6038,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>358</v>
       </c>
       <c r="B58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>359</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>360</v>
       </c>
@@ -6070,15 +6070,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>361</v>
       </c>
       <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>362</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>363</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>364</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>365</v>
       </c>
@@ -6110,15 +6110,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>366</v>
       </c>
       <c r="B66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>367</v>
       </c>
@@ -6126,23 +6126,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>368</v>
       </c>
       <c r="B68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>369</v>
       </c>
       <c r="B69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>370</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>371</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>372</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>373</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>374</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>375</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>376</v>
       </c>
@@ -6198,15 +6198,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>377</v>
       </c>
       <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>378</v>
       </c>
@@ -6214,15 +6214,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>379</v>
       </c>
       <c r="B79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>380</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>381</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>382</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>383</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>384</v>
       </c>
@@ -6262,15 +6262,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>385</v>
       </c>
       <c r="B85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>386</v>
       </c>
@@ -6278,15 +6278,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>387</v>
       </c>
       <c r="B87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>388</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>389</v>
       </c>
@@ -6302,15 +6302,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>390</v>
       </c>
       <c r="B90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>391</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>392</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>393</v>
       </c>
@@ -6334,15 +6334,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>394</v>
       </c>
       <c r="B94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>395</v>
       </c>
@@ -6350,31 +6350,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>396</v>
       </c>
       <c r="B96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>397</v>
       </c>
       <c r="B97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>398</v>
       </c>
       <c r="B98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>399</v>
       </c>
@@ -6382,23 +6382,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>400</v>
       </c>
       <c r="B100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>402</v>
       </c>
@@ -6406,23 +6406,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>404</v>
       </c>
       <c r="B104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>405</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>406</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>407</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>408</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>409</v>
       </c>
@@ -6462,15 +6462,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>410</v>
       </c>
       <c r="B110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>411</v>
       </c>
@@ -6478,23 +6478,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>412</v>
       </c>
       <c r="B112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>414</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>415</v>
       </c>
@@ -6510,15 +6510,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>416</v>
       </c>
       <c r="B116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>417</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>418</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>419</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>420</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>421</v>
       </c>
@@ -6558,31 +6558,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>422</v>
       </c>
       <c r="B122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>423</v>
       </c>
       <c r="B123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>424</v>
       </c>
       <c r="B124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>425</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>426</v>
       </c>
@@ -6598,23 +6598,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>427</v>
       </c>
       <c r="B127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>428</v>
       </c>
       <c r="B128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>429</v>
       </c>
@@ -6622,47 +6622,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>430</v>
       </c>
       <c r="B130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>431</v>
       </c>
       <c r="B131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>432</v>
       </c>
       <c r="B132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>433</v>
       </c>
       <c r="B133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>434</v>
       </c>
       <c r="B134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>435</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>436</v>
       </c>
@@ -6678,15 +6678,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>437</v>
       </c>
       <c r="B137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>438</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>439</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>440</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>441</v>
       </c>
@@ -6718,15 +6718,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>443</v>
       </c>
@@ -6734,15 +6734,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>444</v>
       </c>
       <c r="B144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>445</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>446</v>
       </c>
@@ -6758,15 +6758,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>447</v>
       </c>
       <c r="B147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>448</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>449</v>
       </c>
@@ -6782,31 +6782,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>450</v>
       </c>
       <c r="B150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>451</v>
       </c>
       <c r="B151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>452</v>
       </c>
       <c r="B152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>453</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>454</v>
       </c>
@@ -6822,15 +6822,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>455</v>
       </c>
       <c r="B155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>456</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>457</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>458</v>
       </c>
@@ -6854,23 +6854,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>459</v>
       </c>
       <c r="B159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>460</v>
       </c>
       <c r="B160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>461</v>
       </c>
@@ -6878,15 +6878,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>462</v>
       </c>
       <c r="B162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>463</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>464</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>465</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>466</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>467</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>468</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>469</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>470</v>
       </c>
@@ -6950,15 +6950,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>471</v>
       </c>
       <c r="B171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>472</v>
       </c>
@@ -6966,39 +6966,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>473</v>
       </c>
       <c r="B173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>474</v>
       </c>
       <c r="B174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>475</v>
       </c>
       <c r="B175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>476</v>
       </c>
       <c r="B176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>477</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>478</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>479</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>480</v>
       </c>
@@ -7030,15 +7030,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>481</v>
       </c>
       <c r="B181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>482</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>483</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>484</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>485</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>486</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>487</v>
       </c>
@@ -7086,15 +7086,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>488</v>
       </c>
       <c r="B188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>489</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>490</v>
       </c>
@@ -7110,23 +7110,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>491</v>
       </c>
       <c r="B191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>492</v>
       </c>
       <c r="B192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>493</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>494</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>495</v>
       </c>
@@ -7150,15 +7150,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>496</v>
       </c>
       <c r="B196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>497</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>498</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>499</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>500</v>
       </c>
